--- a/config_12.15/fish_3d_yutu_random_3.xlsx
+++ b/config_12.15/fish_3d_yutu_random_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,22 +316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>128,129,130,128,129,130,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>131,132,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>133,134,134,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135,136,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>34,36,143,144,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,6 +325,22 @@
   </si>
   <si>
     <t>40,147,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,161,162,163,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164,165,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166,167,167,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168,169,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +470,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -517,6 +517,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1076,7 +1079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1116,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C2" s="11">
         <v>180</v>
@@ -1133,7 +1136,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C3" s="11">
         <v>180</v>
@@ -1150,7 +1153,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C4" s="11">
         <v>200</v>
@@ -1369,18 +1372,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:H24"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="13.125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="13.875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="6" customWidth="1"/>
+    <col min="3" max="4" width="13.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="8" customWidth="1"/>
     <col min="6" max="6" width="18" style="8" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
     <col min="8" max="8" width="14.125" style="6" customWidth="1"/>
@@ -1444,10 +1447,10 @@
       <c r="B3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="8">
         <v>16</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="8">
         <v>2</v>
       </c>
       <c r="E3" s="7">
@@ -1468,13 +1471,13 @@
       <c r="B4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="8">
         <v>17</v>
       </c>
-      <c r="D4" s="6">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="8">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8">
         <v>1</v>
       </c>
       <c r="F4" s="7">
@@ -1494,7 +1497,7 @@
       <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="22">
         <v>21</v>
       </c>
       <c r="D5" s="7">
@@ -1518,7 +1521,7 @@
       <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="22">
         <v>22</v>
       </c>
       <c r="D6" s="7">
@@ -1541,7 +1544,7 @@
       <c r="B7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="22">
         <v>23</v>
       </c>
       <c r="D7" s="7">
@@ -1564,7 +1567,7 @@
       <c r="B8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="22">
         <v>24</v>
       </c>
       <c r="D8" s="7">
@@ -1587,13 +1590,13 @@
       <c r="B9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="14">
         <v>65</v>
       </c>
-      <c r="D9" s="13">
-        <v>2</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="D9" s="14">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14">
         <v>1</v>
       </c>
       <c r="F9" s="14"/>
@@ -1611,13 +1614,13 @@
       <c r="B10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="14">
         <v>66</v>
       </c>
-      <c r="D10" s="13">
-        <v>2</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="D10" s="14">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14">
         <v>1</v>
       </c>
       <c r="F10" s="14"/>
@@ -1635,13 +1638,13 @@
       <c r="B11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="14">
         <v>67</v>
       </c>
-      <c r="D11" s="13">
-        <v>2</v>
-      </c>
-      <c r="E11" s="13">
+      <c r="D11" s="14">
+        <v>2</v>
+      </c>
+      <c r="E11" s="14">
         <v>1</v>
       </c>
       <c r="F11" s="14"/>
@@ -1659,13 +1662,13 @@
       <c r="B12" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="14">
         <v>68</v>
       </c>
-      <c r="D12" s="13">
-        <v>2</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="D12" s="14">
+        <v>2</v>
+      </c>
+      <c r="E12" s="14">
         <v>5</v>
       </c>
       <c r="F12" s="14"/>
@@ -1684,7 +1687,7 @@
         <v>42</v>
       </c>
       <c r="C13" s="20">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="21">
         <v>2</v>
@@ -1708,7 +1711,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="20">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="21">
         <v>2</v>
@@ -1732,7 +1735,7 @@
         <v>42</v>
       </c>
       <c r="C15" s="20">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="21">
         <v>2</v>
@@ -1756,7 +1759,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="20">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="21">
         <v>2</v>
@@ -1770,6 +1773,102 @@
       </c>
       <c r="H16" s="20">
         <v>1607961599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="15">
+        <v>74</v>
+      </c>
+      <c r="D17" s="14">
+        <v>2</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15">
+        <v>1607990400</v>
+      </c>
+      <c r="H17" s="15">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="15">
+        <v>75</v>
+      </c>
+      <c r="D18" s="14">
+        <v>2</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15">
+        <v>1607990400</v>
+      </c>
+      <c r="H18" s="15">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="15">
+        <v>76</v>
+      </c>
+      <c r="D19" s="14">
+        <v>2</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15">
+        <v>1607990400</v>
+      </c>
+      <c r="H19" s="15">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="15">
+        <v>77</v>
+      </c>
+      <c r="D20" s="14">
+        <v>2</v>
+      </c>
+      <c r="E20" s="14">
+        <v>5</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15">
+        <v>1607990400</v>
+      </c>
+      <c r="H20" s="15">
+        <v>1608566399</v>
       </c>
     </row>
   </sheetData>
@@ -1967,8 +2066,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2019,7 +2118,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>49</v>
@@ -2036,7 +2135,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>49</v>
@@ -2053,7 +2152,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>50</v>
@@ -2070,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>70</v>
